--- a/bh3/503110639407477064_2021-03-17_18-46-14.xlsx
+++ b/bh3/503110639407477064_2021-03-17_18-46-14.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -540,10 +556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-05-12 02:12:21</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44328.09190972222</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -609,10 +623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-30 18:50:33</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44316.78510416667</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -691,10 +703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-04-25 00:42:16</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44311.02935185185</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -762,10 +772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-04-24 02:42:30</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44310.11284722222</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -836,10 +844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:21:03</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44302.76461805555</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -911,10 +917,8 @@
           <t>4402500525</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-04-12 12:18:36</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44298.51291666667</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -990,10 +994,8 @@
           <t>4401730720</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-04-12 07:54:47</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44298.32971064815</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1065,10 +1067,8 @@
           <t>4392497601</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:09:19</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44296.58980324074</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1132,10 +1132,8 @@
           <t>4390456675</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-04-10 11:29:53</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44296.47908564815</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1207,10 +1205,8 @@
           <t>4390456675</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-04-10 01:17:56</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44296.05412037037</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1282,10 +1278,8 @@
           <t>4386298255</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-04-09 10:19:37</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44295.43028935185</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1353,10 +1347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-04-09 00:57:43</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44295.04008101852</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1417,10 +1409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:44:53</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44293.61450231481</v>
       </c>
       <c r="I14" t="n">
         <v>24</v>
@@ -1492,10 +1482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-04-06 12:00:25</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44292.50028935185</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1567,10 +1555,8 @@
           <t>4278749074</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-04-05 10:40:01</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44291.44445601852</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1642,10 +1628,8 @@
           <t>4278749074</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-04-05 10:39:22</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44291.44400462963</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1717,10 +1701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-04-04 15:40:24</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44290.65305555556</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1792,10 +1774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-04-04 05:33:34</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44290.23164351852</v>
       </c>
       <c r="I19" t="n">
         <v>21</v>
@@ -1863,10 +1843,8 @@
           <t>4360307137</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-04-03 22:40:59</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44289.94512731482</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1942,10 +1920,8 @@
           <t>4360288091</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-04-03 22:38:47</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44289.94359953704</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2021,10 +1997,8 @@
           <t>4357885163</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-04-03 14:36:48</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44289.60888888889</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2098,10 +2072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-04-03 12:58:51</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44289.54086805556</v>
       </c>
       <c r="I23" t="n">
         <v>9</v>
@@ -2165,10 +2137,8 @@
           <t>4354444079</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-04-02 21:18:25</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44288.88778935185</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2232,10 +2202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-04-02 17:05:20</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44288.71203703704</v>
       </c>
       <c r="I25" t="n">
         <v>13</v>
@@ -2311,10 +2279,8 @@
           <t>4348061217</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-04-01 16:29:38</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44287.68724537037</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2382,10 +2348,8 @@
           <t>4329816311</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:04:26</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44283.79474537037</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2449,10 +2413,8 @@
           <t>4325743678</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-27 22:45:50</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44282.94849537037</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2524,10 +2486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-27 22:18:47</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44282.92971064815</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
@@ -2595,10 +2555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-25 10:50:08</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44280.45148148148</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2666,10 +2624,8 @@
           <t>4309080495</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-24 11:56:30</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44279.49756944444</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -2745,10 +2701,8 @@
           <t>4305991985</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:44:26</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44278.73918981481</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2824,10 +2778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:11:11</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44278.5077662037</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2891,10 +2843,8 @@
           <t>4301621928</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:52:59</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44277.70346064815</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2962,10 +2912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-22 16:43:54</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44277.69715277778</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3041,10 +2989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-21 19:08:49</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44276.79778935185</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -3112,10 +3058,8 @@
           <t>4296008888</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-21 11:41:29</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44276.4871412037</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3183,10 +3127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-21 08:47:30</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44276.36631944445</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3255,10 +3197,8 @@
           <t>4294338904</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:46:53</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44275.99089120371</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
@@ -3335,10 +3275,8 @@
           <t>4294127160</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:09:26</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44275.96488425926</v>
       </c>
       <c r="I40" t="n">
         <v>5</v>
@@ -3411,10 +3349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-19 14:31:19</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44274.60508101852</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3478,10 +3414,8 @@
           <t>4285448244</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-19 09:29:25</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44274.39542824074</v>
       </c>
       <c r="I42" t="n">
         <v>3</v>
@@ -3553,10 +3487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-19 08:18:23</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44274.34609953704</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3628,10 +3560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-18 22:01:38</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44273.91780092593</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3691,10 +3621,8 @@
           <t>4283760576</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-18 21:20:00</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44273.88888888889</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3766,10 +3694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-18 20:49:07</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44273.86744212963</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3829,10 +3755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-18 19:56:02</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44273.8305787037</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3908,10 +3832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-18 19:48:53</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44273.82561342593</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3993,10 +3915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-18 18:51:45</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44273.7859375</v>
       </c>
       <c r="I49" t="n">
         <v>218</v>
@@ -4064,10 +3984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-18 18:51:14</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44273.7855787037</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4135,10 +4053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-18 16:53:59</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44273.70415509259</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4214,10 +4130,8 @@
           <t>4282292472</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-18 15:16:04</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44273.63615740741</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4283,10 +4197,8 @@
           <t>4280656683</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-18 13:10:38</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44273.54905092593</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4362,10 +4274,8 @@
           <t>4280656683</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-18 12:54:46</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44273.53803240741</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4441,10 +4351,8 @@
           <t>4278821614</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-18 12:49:20</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44273.53425925926</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4520,10 +4428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-18 12:46:07</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44273.53202546296</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4591,10 +4497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-18 12:22:28</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44273.51560185185</v>
       </c>
       <c r="I57" t="n">
         <v>97</v>
@@ -4658,10 +4562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-18 12:12:59</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44273.5090162037</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4733,10 +4635,8 @@
           <t>4280107490</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:09:50</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44273.38182870371</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4804,10 +4704,8 @@
           <t>4280107490</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:07:56</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44273.38050925926</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4879,10 +4777,8 @@
           <t>4280107490</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:05:09</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44273.37857638889</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4950,10 +4846,8 @@
           <t>4280107490</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-18 08:54:52</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44273.37143518519</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5025,10 +4919,8 @@
           <t>4280107490</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-18 08:14:58</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44273.34372685185</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5096,10 +4988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-18 08:07:38</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44273.33863425926</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -5175,10 +5065,8 @@
           <t>4280656683</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-18 02:32:47</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44273.10609953704</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5242,10 +5130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-18 01:11:02</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44273.0493287037</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5309,10 +5195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-18 01:08:54</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44273.04784722222</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5388,10 +5272,8 @@
           <t>4280365310</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:24:20</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44273.01689814815</v>
       </c>
       <c r="I68" t="n">
         <v>3</v>
@@ -5468,10 +5350,8 @@
           <t>4278821614</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:15:44</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44273.01092592593</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5544,10 +5424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:11:26</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44273.00793981482</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5619,10 +5497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:54:41</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44272.99630787037</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5690,10 +5566,8 @@
           <t>4278821614</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:42:44</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44272.98800925926</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5769,10 +5643,8 @@
           <t>4280107490</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:31:04</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44272.97990740741</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5844,10 +5716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:23:46</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44272.97483796296</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5919,10 +5789,8 @@
           <t>4279175887</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:15:05</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44272.96880787037</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5998,10 +5866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:11:50</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44272.96655092593</v>
       </c>
       <c r="I76" t="n">
         <v>3</v>
@@ -6065,10 +5931,8 @@
           <t>4279175887</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:07:56</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44272.9638425926</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6132,10 +5996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:50:09</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44272.95149305555</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6211,10 +6073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:30:27</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44272.9378125</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6286,10 +6146,8 @@
           <t>4279749656</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:25:36</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44272.93444444444</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6361,10 +6219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:58:47</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44272.91582175926</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6428,10 +6284,8 @@
           <t>4279519771</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:42:16</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44272.90435185185</v>
       </c>
       <c r="I82" t="n">
         <v>2</v>
@@ -6501,10 +6355,8 @@
           <t>4279175887</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:35:11</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44272.89943287037</v>
       </c>
       <c r="I83" t="n">
         <v>4</v>
@@ -6580,10 +6432,8 @@
           <t>4278749074</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:34:16</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44272.89879629629</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6651,10 +6501,8 @@
           <t>4279419321</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:20:46</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44272.8894212963</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6726,10 +6574,8 @@
           <t>4278732091</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:20:17</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44272.88908564814</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6793,10 +6639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:00:07</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44272.87508101852</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6864,10 +6708,8 @@
           <t>4279175887</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:56:08</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44272.87231481481</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6943,10 +6785,8 @@
           <t>4279295623</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:55:11</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44272.87165509259</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -7010,10 +6850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:53:12</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44272.87027777778</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7085,10 +6923,8 @@
           <t>4279295623</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:52:53</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44272.87005787037</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7164,10 +7000,8 @@
           <t>4279175887</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:48:55</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44272.86730324074</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -7243,10 +7077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:40:48</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44272.86166666666</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7324,10 +7156,8 @@
           <t>4279175887</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:27:42</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44272.85256944445</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7392,10 +7222,8 @@
           <t>4279175887</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:26:39</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44272.85184027778</v>
       </c>
       <c r="I95" t="n">
         <v>6</v>
@@ -7471,10 +7299,8 @@
           <t>4278835330</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:22:44</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44272.84912037037</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7538,10 +7364,8 @@
           <t>4278732091</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:18:35</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44272.84623842593</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
@@ -7609,10 +7433,8 @@
           <t>4279120628</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:15:49</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44272.84431712963</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7684,10 +7506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:13:11</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44272.84248842593</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7763,10 +7583,8 @@
           <t>4278901510</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:10:28</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44272.84060185185</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -7830,10 +7648,8 @@
           <t>4279062747</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:03:54</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44272.83604166667</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7909,10 +7725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:58:12</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44272.83208333333</v>
       </c>
       <c r="I102" t="n">
         <v>30</v>
@@ -7976,10 +7790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:48:38</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44272.82543981481</v>
       </c>
       <c r="I103" t="n">
         <v>3</v>
@@ -8043,10 +7855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:47:33</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44272.8246875</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8106,10 +7916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:44:26</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44272.82252314815</v>
       </c>
       <c r="I105" t="n">
         <v>5</v>
@@ -8176,10 +7984,8 @@
           <t>4278981368</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:44:13</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44272.82237268519</v>
       </c>
       <c r="I106" t="n">
         <v>6</v>
@@ -8255,10 +8061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:43:31</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44272.82188657407</v>
       </c>
       <c r="I107" t="n">
         <v>26</v>
@@ -8330,10 +8134,8 @@
           <t>4278901510</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:41:19</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44272.8203587963</v>
       </c>
       <c r="I108" t="n">
         <v>14</v>
@@ -8401,10 +8203,8 @@
           <t>4278929864</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:35:23</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44272.81623842593</v>
       </c>
       <c r="I109" t="n">
         <v>9</v>
@@ -8480,10 +8280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:33:58</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44272.81525462963</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8559,10 +8357,8 @@
           <t>4278901510</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:27:28</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44272.81074074074</v>
       </c>
       <c r="I111" t="n">
         <v>13</v>
@@ -8634,10 +8430,8 @@
           <t>4278890507</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:23:57</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44272.80829861111</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8701,10 +8495,8 @@
           <t>4278732091</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:22:07</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44272.80702546296</v>
       </c>
       <c r="I113" t="n">
         <v>11</v>
@@ -8772,10 +8564,8 @@
           <t>4278877547</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:21:59</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44272.80693287037</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8851,10 +8641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:18:11</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44272.80429398148</v>
       </c>
       <c r="I115" t="n">
         <v>3</v>
@@ -8931,10 +8719,8 @@
           <t>4278849441</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:16:44</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44272.80328703704</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9010,10 +8796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:15:54</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44272.80270833334</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9077,10 +8861,8 @@
           <t>4278732091</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:15:03</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44272.80211805556</v>
       </c>
       <c r="I118" t="n">
         <v>22</v>
@@ -9144,10 +8926,8 @@
           <t>4278835330</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:12:30</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44272.80034722222</v>
       </c>
       <c r="I119" t="n">
         <v>7</v>
@@ -9211,10 +8991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:12:24</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44272.80027777778</v>
       </c>
       <c r="I120" t="n">
         <v>2</v>
@@ -9293,10 +9071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:11:22</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44272.79956018519</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9365,10 +9141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:10:43</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44272.79910879629</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9438,10 +9212,8 @@
           <t>4278821614</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:10:08</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44272.7987037037</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9513,10 +9285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:09:31</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44272.79827546296</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -9584,10 +9354,8 @@
           <t>4278816064</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:08:07</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44272.79730324074</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9647,10 +9415,8 @@
           <t>4278749074</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:02:49</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44272.79362268518</v>
       </c>
       <c r="I126" t="n">
         <v>29</v>
@@ -9726,10 +9492,8 @@
           <t>4278783264</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:02:17</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44272.79325231481</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9801,10 +9565,8 @@
           <t>4278779209</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:02:05</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44272.79311342593</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9872,10 +9634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:01:27</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44272.79267361111</v>
       </c>
       <c r="I129" t="n">
         <v>3</v>
@@ -9947,10 +9707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:59:43</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44272.79146990741</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10022,10 +9780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:59:10</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44272.79108796296</v>
       </c>
       <c r="I131" t="n">
         <v>4</v>
@@ -10101,10 +9857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:58:41</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44272.79075231482</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10180,10 +9934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:58:22</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44272.79053240741</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10259,10 +10011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:58:19</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44272.79049768519</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10322,10 +10072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:58:08</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44272.79037037037</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10393,10 +10141,8 @@
           <t>4278762595</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:57:44</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44272.79009259259</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10472,10 +10218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:57:34</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44272.78997685185</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10543,10 +10287,8 @@
           <t>4278762347</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:57:34</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44272.78997685185</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10622,10 +10364,8 @@
           <t>4278758911</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:57:12</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44272.78972222222</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10701,10 +10441,8 @@
           <t>4278761759</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:57:11</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44272.78971064815</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10780,10 +10518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:55:48</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44272.78875</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10859,10 +10595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:55:34</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44272.78858796296</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10930,10 +10664,8 @@
           <t>4278749074</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:55:25</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44272.7884837963</v>
       </c>
       <c r="I143" t="n">
         <v>53</v>
@@ -11009,10 +10741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:55:03</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44272.78822916667</v>
       </c>
       <c r="I144" t="n">
         <v>25</v>
@@ -11080,10 +10810,8 @@
           <t>4278751582</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:54:45</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44272.78802083333</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11160,10 +10888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:54:30</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44272.78784722222</v>
       </c>
       <c r="I146" t="n">
         <v>348</v>
@@ -11239,10 +10965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:53:26</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44272.78710648148</v>
       </c>
       <c r="I147" t="n">
         <v>18</v>
@@ -11318,10 +11042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:53:04</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44272.78685185185</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -11393,10 +11115,8 @@
           <t>4278740807</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:52:03</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44272.78614583334</v>
       </c>
       <c r="I149" t="n">
         <v>6</v>
@@ -11472,10 +11192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:51:50</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44272.78599537037</v>
       </c>
       <c r="I150" t="n">
         <v>64</v>
@@ -11551,10 +11269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:51:19</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44272.78563657407</v>
       </c>
       <c r="I151" t="n">
         <v>28</v>
@@ -11630,10 +11346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:51:08</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44272.78550925926</v>
       </c>
       <c r="I152" t="n">
         <v>4</v>
@@ -11709,10 +11423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:51:05</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44272.78547453704</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11780,10 +11492,8 @@
           <t>4278728266</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:50:26</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44272.78502314815</v>
       </c>
       <c r="I154" t="n">
         <v>15</v>
@@ -11859,10 +11569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:50:09</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44272.78482638889</v>
       </c>
       <c r="I155" t="n">
         <v>5</v>
@@ -11926,10 +11634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:49:30</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44272.784375</v>
       </c>
       <c r="I156" t="n">
         <v>9</v>
@@ -12005,10 +11711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:49:21</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44272.78427083333</v>
       </c>
       <c r="I157" t="n">
         <v>4</v>
@@ -12087,10 +11791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:49:14</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44272.78418981482</v>
       </c>
       <c r="I158" t="n">
         <v>2</v>
@@ -12158,10 +11860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:48:45</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44272.78385416666</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12233,10 +11933,8 @@
           <t>4278722139</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:48:39</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44272.78378472223</v>
       </c>
       <c r="I160" t="n">
         <v>11</v>
@@ -12300,10 +11998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:48:28</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44272.78365740741</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -12371,10 +12067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:48:23</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44272.78359953704</v>
       </c>
       <c r="I162" t="n">
         <v>103</v>
@@ -12446,10 +12140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:48:12</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44272.78347222223</v>
       </c>
       <c r="I163" t="n">
         <v>3</v>
@@ -12537,10 +12229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:48:01</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44272.78334490741</v>
       </c>
       <c r="I164" t="n">
         <v>410</v>
@@ -12616,10 +12306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:47:44</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44272.78314814815</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12696,10 +12384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:47:36</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44272.78305555556</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12767,10 +12453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:47:18</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44272.78284722222</v>
       </c>
       <c r="I167" t="n">
         <v>23</v>
@@ -12842,10 +12526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:47:12</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44272.78277777778</v>
       </c>
       <c r="I168" t="n">
         <v>949</v>
@@ -12909,10 +12591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:47:09</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44272.78274305556</v>
       </c>
       <c r="I169" t="n">
         <v>3</v>
@@ -12988,10 +12668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:47:06</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44272.78270833333</v>
       </c>
       <c r="I170" t="n">
         <v>56</v>
@@ -13063,10 +12741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:47:02</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44272.78266203704</v>
       </c>
       <c r="I171" t="n">
         <v>5</v>
@@ -13134,10 +12810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:59</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44272.78262731482</v>
       </c>
       <c r="I172" t="n">
         <v>3</v>
@@ -13209,10 +12883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:58</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44272.78261574074</v>
       </c>
       <c r="I173" t="n">
         <v>5</v>
@@ -13284,10 +12956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:58</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44272.78261574074</v>
       </c>
       <c r="I174" t="n">
         <v>3</v>
@@ -13363,10 +13033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:52</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44272.78254629629</v>
       </c>
       <c r="I175" t="n">
         <v>7</v>
@@ -13438,10 +13106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:50</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44272.78252314815</v>
       </c>
       <c r="I176" t="n">
         <v>4</v>
@@ -13513,10 +13179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:48</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44272.7825</v>
       </c>
       <c r="I177" t="n">
         <v>266</v>
@@ -13588,10 +13252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:45</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44272.78246527778</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13659,10 +13321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:43</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44272.78244212963</v>
       </c>
       <c r="I179" t="n">
         <v>9</v>
@@ -13734,10 +13394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:42</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44272.78243055556</v>
       </c>
       <c r="I180" t="n">
         <v>4</v>
@@ -13813,10 +13471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:37</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44272.78237268519</v>
       </c>
       <c r="I181" t="n">
         <v>5</v>
@@ -13884,10 +13540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:27</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44272.78225694445</v>
       </c>
       <c r="I182" t="n">
         <v>4</v>
